--- a/layer_summation_method/data/R_table.XLSX
+++ b/layer_summation_method/data/R_table.XLSX
@@ -21,24 +21,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>0,4</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
     <t>h</t>
   </si>
   <si>
@@ -46,6 +28,24 @@
   </si>
   <si>
     <t>sand</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.6</t>
   </si>
 </sst>
 </file>
@@ -482,41 +482,41 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="10">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
